--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2295380.64017941</v>
+        <v>2318821.775868006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4367113.754329079</v>
+        <v>4367113.754329077</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>117.9527887935166</v>
       </c>
       <c r="W2" t="n">
-        <v>58.10205585607479</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>96.39861605200582</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>81.84588904486716</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>51.96190712986728</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>278.6408579030034</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>154.7807213037541</v>
       </c>
       <c r="G5" t="n">
         <v>15.15335116083965</v>
       </c>
       <c r="H5" t="n">
-        <v>102.1869016002925</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>204.7166721464324</v>
+        <v>204.7166721464326</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.615928037739</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4419107982032</v>
+        <v>222.4419107982033</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3337019994929</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>278.6408579030022</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>64.80127493506072</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2635884171364</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.6447001466679</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.19524060252834</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.1985297019774</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>86.20909344701259</v>
       </c>
       <c r="U6" t="n">
         <v>225.9361236108384</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>10.6086022816089</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>177.8554233802354</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>253.6915800531447</v>
+        <v>290.2685735350509</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.16470695741836</v>
+        <v>53.80100608808075</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>303.9459315897139</v>
       </c>
       <c r="Y11" t="n">
-        <v>132.4198924122978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>166.6669515802785</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>128.066869816217</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>284.5903039481362</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>4.74301935358149</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.11949179705641</v>
+        <v>130.623879638558</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7188787253504</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>304.7358443710117</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>150.6600853028672</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>56.08889633518793</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>179.7188787253504</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>272.4046435534666</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.0140383262351</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>45.85493162873595</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>217.2395120262234</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>179.7188787253503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I24" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S24" t="n">
         <v>147.9721212459916</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>79.286047385091</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0140383262351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>383.4598386573208</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>323.5038770089983</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I27" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S27" t="n">
         <v>147.9721212459916</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.7857997499449</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>26.69193023443561</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>179.7188787253508</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I30" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S30" t="n">
         <v>147.9721212459916</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>228.1641319420675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>22.53590636345497</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>284.9324696144883</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>60.887284757979</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I33" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S33" t="n">
         <v>147.9721212459916</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.6442610407246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>264.8835242011523</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>64.94303548110612</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I36" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S36" t="n">
         <v>147.9721212459916</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.47280874416369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>138.3856286778005</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>213.918963367548</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>36.00746652476358</v>
       </c>
       <c r="T40" t="n">
-        <v>165.0140383262353</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>213.918963367548</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.30408393726707</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>126.2565614811635</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>201.2075889726289</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>81.31128479082771</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>16.39856530802294</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>49.94675160484184</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>515.4619057441345</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="C2" t="n">
-        <v>515.4619057441345</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="D2" t="n">
-        <v>515.4619057441345</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E2" t="n">
-        <v>515.4619057441345</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485117</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800421</v>
@@ -4337,7 +4337,7 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
         <v>785.5101925369328</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>828.0278728906062</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U2" t="n">
-        <v>574.1508510533009</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="V2" t="n">
-        <v>574.1508510533009</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="W2" t="n">
-        <v>515.4619057441345</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="X2" t="n">
-        <v>515.4619057441345</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="Y2" t="n">
-        <v>515.4619057441345</v>
+        <v>579.3092971623234</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.5939206892484</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="C3" t="n">
-        <v>167.5939206892484</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="D3" t="n">
-        <v>167.5939206892484</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>118.4317021626039</v>
       </c>
       <c r="H3" t="n">
         <v>21.05936271613333</v>
@@ -4407,52 +4407,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683209</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516946</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5537082516946</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565281</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490202</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>797.8069132024718</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U3" t="n">
-        <v>797.8069132024718</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="V3" t="n">
-        <v>797.8069132024718</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="W3" t="n">
-        <v>543.5695564742703</v>
+        <v>326.1920009275578</v>
       </c>
       <c r="X3" t="n">
-        <v>543.5695564742703</v>
+        <v>326.1920009275578</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.8092577093164</v>
+        <v>118.4317021626039</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>1000.481360928013</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>1000.481360928013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.0022065638357</v>
+        <v>400.7263641989335</v>
       </c>
       <c r="C5" t="n">
-        <v>354.5467945405999</v>
+        <v>400.7263641989335</v>
       </c>
       <c r="D5" t="n">
-        <v>354.5467945405999</v>
+        <v>400.7263641989335</v>
       </c>
       <c r="E5" t="n">
-        <v>354.5467945405999</v>
+        <v>400.7263641989335</v>
       </c>
       <c r="F5" t="n">
-        <v>347.6012937913964</v>
+        <v>244.3822012658485</v>
       </c>
       <c r="G5" t="n">
-        <v>332.294878477417</v>
+        <v>229.0757859518691</v>
       </c>
       <c r="H5" t="n">
-        <v>229.075785951869</v>
+        <v>229.0757859518691</v>
       </c>
       <c r="I5" t="n">
-        <v>22.29126863224027</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="J5" t="n">
-        <v>23.01366245817439</v>
+        <v>23.01366245817394</v>
       </c>
       <c r="K5" t="n">
-        <v>144.8411477896484</v>
+        <v>144.8411477896474</v>
       </c>
       <c r="L5" t="n">
-        <v>348.2555436087238</v>
+        <v>348.2555436087221</v>
       </c>
       <c r="M5" t="n">
-        <v>591.1997981884635</v>
+        <v>591.1997981884612</v>
       </c>
       <c r="N5" t="n">
-        <v>823.4431472518888</v>
+        <v>823.4431472518858</v>
       </c>
       <c r="O5" t="n">
-        <v>997.5563182958034</v>
+        <v>997.5563182957995</v>
       </c>
       <c r="P5" t="n">
-        <v>1108.48349862367</v>
+        <v>1108.483498623665</v>
       </c>
       <c r="Q5" t="n">
-        <v>1114.563431612014</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="R5" t="n">
-        <v>1114.563431612014</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="S5" t="n">
-        <v>1114.563431612014</v>
+        <v>906.870575008232</v>
       </c>
       <c r="T5" t="n">
-        <v>889.8746328259497</v>
+        <v>682.1817762221681</v>
       </c>
       <c r="U5" t="n">
-        <v>636.0022065638357</v>
+        <v>682.1817762221681</v>
       </c>
       <c r="V5" t="n">
-        <v>636.0022065638357</v>
+        <v>682.1817762221681</v>
       </c>
       <c r="W5" t="n">
-        <v>636.0022065638357</v>
+        <v>682.1817762221681</v>
       </c>
       <c r="X5" t="n">
-        <v>636.0022065638357</v>
+        <v>682.1817762221681</v>
       </c>
       <c r="Y5" t="n">
-        <v>636.0022065638357</v>
+        <v>400.7263641989335</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175.2670010380268</v>
+        <v>309.8757676037303</v>
       </c>
       <c r="C6" t="n">
-        <v>175.2670010380268</v>
+        <v>309.8757676037303</v>
       </c>
       <c r="D6" t="n">
-        <v>175.2670010380268</v>
+        <v>160.941357942479</v>
       </c>
       <c r="E6" t="n">
-        <v>109.8111677702887</v>
+        <v>160.941357942479</v>
       </c>
       <c r="F6" t="n">
-        <v>109.8111677702887</v>
+        <v>160.941357942479</v>
       </c>
       <c r="G6" t="n">
-        <v>109.8111677702887</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="H6" t="n">
-        <v>109.8111677702887</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="I6" t="n">
-        <v>22.29126863224027</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="J6" t="n">
-        <v>22.29126863224027</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="K6" t="n">
-        <v>22.29126863224027</v>
+        <v>160.4265009610034</v>
       </c>
       <c r="L6" t="n">
-        <v>269.4355317315479</v>
+        <v>407.5707640603106</v>
       </c>
       <c r="M6" t="n">
-        <v>545.2899810555213</v>
+        <v>649.2293727633124</v>
       </c>
       <c r="N6" t="n">
-        <v>821.1444303794947</v>
+        <v>649.2293727633124</v>
       </c>
       <c r="O6" t="n">
-        <v>1088.724755609963</v>
+        <v>916.8096979937807</v>
       </c>
       <c r="P6" t="n">
-        <v>1114.563431612014</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="Q6" t="n">
-        <v>1114.563431612014</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="R6" t="n">
-        <v>1018.406622922591</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="S6" t="n">
-        <v>846.4889161529168</v>
+        <v>1114.563431612009</v>
       </c>
       <c r="T6" t="n">
-        <v>846.4889161529168</v>
+        <v>1027.483539241289</v>
       </c>
       <c r="U6" t="n">
-        <v>618.2706094753023</v>
+        <v>799.2652325636745</v>
       </c>
       <c r="V6" t="n">
-        <v>383.1185012435596</v>
+        <v>564.1131243319319</v>
       </c>
       <c r="W6" t="n">
-        <v>383.1185012435596</v>
+        <v>309.8757676037303</v>
       </c>
       <c r="X6" t="n">
-        <v>175.2670010380268</v>
+        <v>309.8757676037303</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.2670010380268</v>
+        <v>309.8757676037303</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.9432114405602</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="C7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="D7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="E7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="F7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="G7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="H7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00702851265331</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="K7" t="n">
-        <v>22.29126863224027</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="L7" t="n">
-        <v>59.46826505305445</v>
+        <v>59.46826505305408</v>
       </c>
       <c r="M7" t="n">
-        <v>109.0553182737775</v>
+        <v>109.0553182737769</v>
       </c>
       <c r="N7" t="n">
-        <v>162.8979186232785</v>
+        <v>162.8979186232775</v>
       </c>
       <c r="O7" t="n">
-        <v>196.613979208948</v>
+        <v>196.6139792089468</v>
       </c>
       <c r="P7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="R7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="S7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="T7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="U7" t="n">
-        <v>201.9432114405602</v>
+        <v>201.9432114405588</v>
       </c>
       <c r="V7" t="n">
-        <v>201.9432114405602</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="W7" t="n">
-        <v>201.9432114405602</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="X7" t="n">
-        <v>201.9432114405602</v>
+        <v>22.29126863224018</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.9432114405602</v>
+        <v>22.29126863224018</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C8" t="n">
-        <v>1139.146815977588</v>
+        <v>1687.82494865178</v>
       </c>
       <c r="D8" t="n">
-        <v>1139.146815977588</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3069090307621</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610018</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610018</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610018</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610018</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610018</v>
+        <v>108.2874324143854</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2452.998035652587</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="C11" t="n">
         <v>2084.035518712175</v>
@@ -5036,19 +5036,19 @@
         <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403571</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604022</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N11" t="n">
         <v>2477.93754444976</v>
@@ -5057,34 +5057,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331032</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V11" t="n">
-        <v>3699.589756331032</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W11" t="n">
-        <v>3346.821101060918</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X11" t="n">
-        <v>2973.355342799838</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="Y11" t="n">
-        <v>2839.597875716709</v>
+        <v>2084.035518712175</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324305</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985492</v>
+        <v>645.9611546560964</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.327088765654</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N12" t="n">
-        <v>2221.532781018436</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O12" t="n">
-        <v>2524.910283838374</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P12" t="n">
         <v>2633.599911365673</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K13" t="n">
         <v>175.0397247222305</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230489</v>
+        <v>359.872719623049</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422868</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783911</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O13" t="n">
-        <v>945.06058056699</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165606</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053681</v>
+        <v>943.4485153053686</v>
       </c>
       <c r="S13" t="n">
-        <v>775.0980591636727</v>
+        <v>736.0082305577739</v>
       </c>
       <c r="T13" t="n">
-        <v>549.4688624760377</v>
+        <v>510.3790338701389</v>
       </c>
       <c r="U13" t="n">
-        <v>549.4688624760377</v>
+        <v>221.2268574478186</v>
       </c>
       <c r="V13" t="n">
-        <v>294.7843742701507</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="W13" t="n">
-        <v>294.7843742701507</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="X13" t="n">
-        <v>294.7843742701507</v>
+        <v>91.86638288598326</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662064</v>
+        <v>91.86638288598326</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.305065052698</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="C14" t="n">
-        <v>1964.342548112286</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.076849505535</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.288596907291</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
-        <v>809.3026921176836</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662064</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
         <v>262.631694140357</v>
@@ -5294,34 +5294,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T14" t="n">
-        <v>3694.798827691051</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U14" t="n">
-        <v>3441.107124436202</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V14" t="n">
-        <v>3110.044237092631</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W14" t="n">
-        <v>3110.044237092631</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X14" t="n">
-        <v>3110.044237092631</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y14" t="n">
-        <v>2719.904905116819</v>
+        <v>1627.446520990146</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5352,25 +5352,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324305</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L15" t="n">
-        <v>907.7817392985492</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M15" t="n">
-        <v>1548.327088765654</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N15" t="n">
-        <v>2221.532781018436</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838374</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P15" t="n">
         <v>2633.599911365673</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>812.3593331728405</v>
+        <v>242.9279780545276</v>
       </c>
       <c r="C16" t="n">
-        <v>643.4231502449336</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D16" t="n">
-        <v>493.3065108325978</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E16" t="n">
-        <v>345.3934172502047</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F16" t="n">
-        <v>198.5034697522944</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G16" t="n">
-        <v>198.5034697522944</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522944</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K16" t="n">
         <v>175.0397247222305</v>
@@ -5473,13 +5473,13 @@
         <v>1073.926476585965</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585965</v>
+        <v>784.5093065490048</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585965</v>
+        <v>556.5197556509875</v>
       </c>
       <c r="Y16" t="n">
-        <v>994.0077980030802</v>
+        <v>424.5764428847673</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759904</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819493</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212742</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614498</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248905</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>255.526016061318</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
         <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604023</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M17" t="n">
         <v>1850.629876389914</v>
@@ -5531,34 +5531,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331032</v>
+        <v>3445.898053076184</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331032</v>
+        <v>3114.835165732613</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060918</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799838</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.216010824026</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K18" t="n">
-        <v>403.4201994324305</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L18" t="n">
-        <v>907.781739298549</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.327088765654</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N18" t="n">
-        <v>2221.532781018436</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O18" t="n">
-        <v>2524.910283838374</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P18" t="n">
         <v>2633.599911365673</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.6472459702448</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="C19" t="n">
-        <v>130.6472459702448</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="D19" t="n">
-        <v>130.6472459702448</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="E19" t="n">
-        <v>130.6472459702448</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="F19" t="n">
-        <v>130.6472459702448</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585965</v>
@@ -5698,25 +5698,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>866.4861918383706</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>640.8569951507355</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U19" t="n">
-        <v>640.8569951507355</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V19" t="n">
-        <v>640.8569951507355</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W19" t="n">
-        <v>351.4398251137749</v>
+        <v>784.5093065490048</v>
       </c>
       <c r="X19" t="n">
-        <v>351.4398251137749</v>
+        <v>784.5093065490048</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.6472459702448</v>
+        <v>563.7167274054747</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.616170759904</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.653653819493</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D20" t="n">
-        <v>1469.387955212742</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.599702614498</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>672.6137978248905</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G20" t="n">
-        <v>255.526016061318</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604017</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
         <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331032</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.821101060918</v>
+        <v>3093.3706633779</v>
       </c>
       <c r="X20" t="n">
-        <v>2973.355342799838</v>
+        <v>2719.90490511682</v>
       </c>
       <c r="Y20" t="n">
-        <v>2583.216010824026</v>
+        <v>2719.90490511682</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K21" t="n">
-        <v>403.4201994324305</v>
+        <v>209.2154943965322</v>
       </c>
       <c r="L21" t="n">
-        <v>907.781739298549</v>
+        <v>346.4450924122261</v>
       </c>
       <c r="M21" t="n">
-        <v>1548.327088765654</v>
+        <v>986.9904418793308</v>
       </c>
       <c r="N21" t="n">
-        <v>2221.532781018436</v>
+        <v>1660.196134132113</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838374</v>
+        <v>2209.632142884836</v>
       </c>
       <c r="P21" t="n">
         <v>2633.599911365673</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
         <v>1073.926476585965</v>
@@ -5938,22 +5938,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T22" t="n">
-        <v>907.2456297917884</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U22" t="n">
-        <v>618.0934533694681</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V22" t="n">
-        <v>363.4089651635812</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="W22" t="n">
-        <v>73.99179512662064</v>
+        <v>495.3571301266846</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99179512662064</v>
+        <v>449.0390173703856</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662064</v>
+        <v>228.2464382268556</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015.081949825207</v>
+        <v>1865.553283416334</v>
       </c>
       <c r="C23" t="n">
         <v>1646.119432884796</v>
@@ -5978,13 +5978,13 @@
         <v>491.0795768901932</v>
       </c>
       <c r="G23" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H23" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I23" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J23" t="n">
         <v>262.631694140357</v>
@@ -5993,10 +5993,10 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N23" t="n">
         <v>2477.93754444976</v>
@@ -6005,34 +6005,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P23" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q23" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R23" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V23" t="n">
-        <v>3518.055535396335</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W23" t="n">
-        <v>3165.286880126221</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X23" t="n">
-        <v>2791.821121865141</v>
+        <v>2642.292455456268</v>
       </c>
       <c r="Y23" t="n">
-        <v>2401.681789889329</v>
+        <v>2252.153123480456</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I24" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K24" t="n">
-        <v>141.5996147899776</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L24" t="n">
-        <v>645.9611546560961</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M24" t="n">
         <v>1286.506504123201</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.712196375983</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O24" t="n">
-        <v>2509.148205128706</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P24" t="n">
-        <v>2633.599911365673</v>
+        <v>2617.837832656006</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.33685256765</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.99179512662064</v>
+        <v>154.0787116772176</v>
       </c>
       <c r="C25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J25" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K25" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L25" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M25" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N25" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O25" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P25" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q25" t="n">
         <v>1073.926476585965</v>
@@ -6178,19 +6178,19 @@
         <v>1073.926476585965</v>
       </c>
       <c r="U25" t="n">
-        <v>784.774300163645</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V25" t="n">
-        <v>530.0898119577581</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W25" t="n">
-        <v>240.6726419207975</v>
+        <v>784.5093065490048</v>
       </c>
       <c r="X25" t="n">
-        <v>73.99179512662064</v>
+        <v>556.5197556509875</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.99179512662064</v>
+        <v>335.7271765074573</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1985.327338422565</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C26" t="n">
-        <v>1616.364821482153</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D26" t="n">
-        <v>1258.099122875403</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E26" t="n">
-        <v>872.3108702771583</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F26" t="n">
-        <v>461.3249654875507</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G26" t="n">
-        <v>73.99179512662064</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H26" t="n">
-        <v>73.99179512662064</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J26" t="n">
         <v>262.631694140357</v>
       </c>
       <c r="K26" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N26" t="n">
         <v>2477.93754444976</v>
@@ -6242,34 +6242,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S26" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T26" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U26" t="n">
-        <v>3445.898053076183</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="V26" t="n">
-        <v>3114.835165732612</v>
+        <v>3216.603125889479</v>
       </c>
       <c r="W26" t="n">
-        <v>2762.066510462498</v>
+        <v>3216.603125889479</v>
       </c>
       <c r="X26" t="n">
-        <v>2762.066510462498</v>
+        <v>2843.137367628399</v>
       </c>
       <c r="Y26" t="n">
-        <v>2371.927178486686</v>
+        <v>2452.998035652587</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J27" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K27" t="n">
-        <v>232.0072486300702</v>
+        <v>157.3616934996454</v>
       </c>
       <c r="L27" t="n">
-        <v>736.3687884961887</v>
+        <v>661.7232333657639</v>
       </c>
       <c r="M27" t="n">
-        <v>1376.914137963293</v>
+        <v>1302.268582832869</v>
       </c>
       <c r="N27" t="n">
-        <v>2050.119830216076</v>
+        <v>1975.474275085651</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.632142884836</v>
+        <v>2524.910283838374</v>
       </c>
       <c r="P27" t="n">
         <v>2633.599911365673</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K28" t="n">
-        <v>2800.703004467297</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L28" t="n">
-        <v>2985.535999368115</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M28" t="n">
-        <v>3190.805600087353</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N28" t="n">
-        <v>3396.628964923458</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O28" t="n">
-        <v>3570.723860312057</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P28" t="n">
-        <v>3696.171436910673</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q28" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R28" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S28" t="n">
-        <v>3492.149471583438</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T28" t="n">
-        <v>3278.224421330968</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U28" t="n">
-        <v>2989.072244908648</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V28" t="n">
-        <v>2989.072244908648</v>
+        <v>591.3985160615987</v>
       </c>
       <c r="W28" t="n">
-        <v>2699.655074871687</v>
+        <v>301.981346024638</v>
       </c>
       <c r="X28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y28" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2002.000912137296</v>
+        <v>2196.616170759905</v>
       </c>
       <c r="C29" t="n">
-        <v>1633.038395196884</v>
+        <v>1827.653653819493</v>
       </c>
       <c r="D29" t="n">
-        <v>1606.076849505535</v>
+        <v>1469.387955212743</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.288596907291</v>
+        <v>1083.599702614498</v>
       </c>
       <c r="F29" t="n">
-        <v>809.3026921176836</v>
+        <v>672.613797824891</v>
       </c>
       <c r="G29" t="n">
-        <v>392.2149103541111</v>
+        <v>255.5260160613184</v>
       </c>
       <c r="H29" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I29" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J29" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K29" t="n">
         <v>666.0988071604024</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N29" t="n">
         <v>2477.93754444976</v>
@@ -6479,34 +6479,34 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P29" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q29" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R29" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S29" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T29" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U29" t="n">
-        <v>3445.898053076183</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V29" t="n">
-        <v>3114.835165732612</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.066510462498</v>
+        <v>3346.821101060918</v>
       </c>
       <c r="X29" t="n">
-        <v>2388.600752201418</v>
+        <v>2973.355342799839</v>
       </c>
       <c r="Y29" t="n">
-        <v>2388.600752201418</v>
+        <v>2583.216010824027</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I30" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J30" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K30" t="n">
-        <v>232.0072486300702</v>
+        <v>209.2154943965322</v>
       </c>
       <c r="L30" t="n">
-        <v>736.3687884961887</v>
+        <v>346.4450924122261</v>
       </c>
       <c r="M30" t="n">
-        <v>1376.914137963293</v>
+        <v>986.9904418793308</v>
       </c>
       <c r="N30" t="n">
-        <v>2050.119830216076</v>
+        <v>1660.196134132113</v>
       </c>
       <c r="O30" t="n">
         <v>2209.632142884836</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K31" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L31" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M31" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N31" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O31" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P31" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q31" t="n">
         <v>1073.926476585965</v>
@@ -6646,25 +6646,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S31" t="n">
-        <v>1073.926476585965</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="T31" t="n">
-        <v>848.2972798983302</v>
+        <v>640.8569951507358</v>
       </c>
       <c r="U31" t="n">
-        <v>559.14510347601</v>
+        <v>640.8569951507358</v>
       </c>
       <c r="V31" t="n">
-        <v>304.4606152701232</v>
+        <v>386.1725069448489</v>
       </c>
       <c r="W31" t="n">
-        <v>73.99179512662064</v>
+        <v>96.75533690788831</v>
       </c>
       <c r="X31" t="n">
-        <v>73.99179512662064</v>
+        <v>96.75533690788831</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1650.753421684045</v>
+        <v>2252.153123480456</v>
       </c>
       <c r="C32" t="n">
-        <v>1281.790904743634</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D32" t="n">
-        <v>1281.790904743634</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E32" t="n">
         <v>1220.288596907291</v>
       </c>
       <c r="F32" t="n">
-        <v>809.3026921176836</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G32" t="n">
-        <v>392.2149103541111</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H32" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I32" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J32" t="n">
         <v>262.631694140357</v>
@@ -6719,31 +6719,31 @@
         <v>3454.413795556132</v>
       </c>
       <c r="Q32" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R32" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S32" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T32" t="n">
-        <v>3484.789894598744</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U32" t="n">
-        <v>3484.789894598744</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V32" t="n">
-        <v>3153.727007255173</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W32" t="n">
-        <v>2800.958351985058</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X32" t="n">
-        <v>2427.492593723979</v>
+        <v>2642.292455456268</v>
       </c>
       <c r="Y32" t="n">
-        <v>2037.353261748167</v>
+        <v>2252.153123480456</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J33" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K33" t="n">
         <v>403.4201994324305</v>
       </c>
       <c r="L33" t="n">
-        <v>540.6497974481244</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M33" t="n">
-        <v>1181.195146915229</v>
+        <v>1548.327088765654</v>
       </c>
       <c r="N33" t="n">
-        <v>1854.400839168012</v>
+        <v>2221.532781018436</v>
       </c>
       <c r="O33" t="n">
-        <v>2403.836847920735</v>
+        <v>2524.910283838374</v>
       </c>
       <c r="P33" t="n">
         <v>2633.599911365673</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G34" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H34" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I34" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J34" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K34" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L34" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M34" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N34" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O34" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P34" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q34" t="n">
         <v>1073.926476585965</v>
@@ -6886,22 +6886,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T34" t="n">
-        <v>1073.926476585965</v>
+        <v>880.550692483919</v>
       </c>
       <c r="U34" t="n">
-        <v>1073.926476585965</v>
+        <v>591.3985160615987</v>
       </c>
       <c r="V34" t="n">
-        <v>819.2419883800784</v>
+        <v>591.3985160615987</v>
       </c>
       <c r="W34" t="n">
-        <v>529.8248183431178</v>
+        <v>301.981346024638</v>
       </c>
       <c r="X34" t="n">
-        <v>301.8352674451005</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.553283416334</v>
+        <v>1916.217283289125</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.590766475922</v>
+        <v>1547.254766348713</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.325067869172</v>
+        <v>1188.989067741963</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5368152709275</v>
+        <v>803.2008151437187</v>
       </c>
       <c r="F35" t="n">
-        <v>341.5509104813199</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="G35" t="n">
-        <v>73.99179512662064</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H35" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I35" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J35" t="n">
         <v>262.631694140357</v>
@@ -6956,31 +6956,31 @@
         <v>3454.413795556132</v>
       </c>
       <c r="Q35" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R35" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S35" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T35" t="n">
-        <v>3699.589756331032</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.589756331032</v>
+        <v>3419.190868860253</v>
       </c>
       <c r="V35" t="n">
-        <v>3368.526868987462</v>
+        <v>3419.190868860253</v>
       </c>
       <c r="W35" t="n">
-        <v>3015.758213717347</v>
+        <v>3066.422213590139</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.292455456267</v>
+        <v>2692.956455329059</v>
       </c>
       <c r="Y35" t="n">
-        <v>2252.153123480456</v>
+        <v>2302.817123353247</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I36" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J36" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K36" t="n">
-        <v>141.5996147899776</v>
+        <v>260.2588666468733</v>
       </c>
       <c r="L36" t="n">
-        <v>645.9611546560961</v>
+        <v>764.6204065129918</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.506504123201</v>
+        <v>1405.165755980096</v>
       </c>
       <c r="N36" t="n">
-        <v>1959.712196375983</v>
+        <v>2078.371448232879</v>
       </c>
       <c r="O36" t="n">
-        <v>2509.148205128706</v>
+        <v>2524.910283838374</v>
       </c>
       <c r="P36" t="n">
         <v>2633.599911365673</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.0725686526728</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C37" t="n">
-        <v>375.1363857247659</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D37" t="n">
-        <v>375.1363857247659</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E37" t="n">
-        <v>375.1363857247659</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F37" t="n">
-        <v>228.2464382268556</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G37" t="n">
-        <v>228.2464382268556</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H37" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I37" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J37" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L37" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M37" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N37" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O37" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P37" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q37" t="n">
         <v>1073.926476585965</v>
@@ -7123,22 +7123,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T37" t="n">
-        <v>848.2972798983302</v>
+        <v>907.2456297917884</v>
       </c>
       <c r="U37" t="n">
-        <v>848.2972798983302</v>
+        <v>618.0934533694682</v>
       </c>
       <c r="V37" t="n">
-        <v>848.2972798983302</v>
+        <v>363.4089651635813</v>
       </c>
       <c r="W37" t="n">
-        <v>848.2972798983302</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="X37" t="n">
-        <v>620.3077290003129</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y37" t="n">
-        <v>544.0725686526728</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1725.769820105425</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C38" t="n">
-        <v>1725.769820105425</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.769820105425</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E38" t="n">
-        <v>1339.98156750718</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F38" t="n">
-        <v>928.9956627175729</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G38" t="n">
-        <v>511.9078809540003</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H38" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I38" t="n">
         <v>73.99179512662066</v>
@@ -7205,19 +7205,19 @@
         <v>3699.589756331033</v>
       </c>
       <c r="U38" t="n">
-        <v>3559.806293020123</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V38" t="n">
-        <v>3228.743405676552</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="W38" t="n">
-        <v>2875.974750406438</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="X38" t="n">
-        <v>2502.508992145358</v>
+        <v>3110.044237092632</v>
       </c>
       <c r="Y38" t="n">
-        <v>2112.369660169546</v>
+        <v>2719.90490511682</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>73.99179512662066</v>
       </c>
       <c r="K39" t="n">
-        <v>232.0072486300697</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L39" t="n">
-        <v>736.3687884961882</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M39" t="n">
-        <v>1376.914137963293</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N39" t="n">
-        <v>2050.119830216076</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O39" t="n">
-        <v>2209.632142884836</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P39" t="n">
         <v>2633.599911365673</v>
@@ -7357,22 +7357,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S40" t="n">
-        <v>1073.926476585965</v>
+        <v>1037.555298278123</v>
       </c>
       <c r="T40" t="n">
-        <v>907.2456297917884</v>
+        <v>811.9261015904883</v>
       </c>
       <c r="U40" t="n">
-        <v>618.0934533694682</v>
+        <v>522.773925168168</v>
       </c>
       <c r="V40" t="n">
-        <v>363.4089651635813</v>
+        <v>522.773925168168</v>
       </c>
       <c r="W40" t="n">
-        <v>73.99179512662066</v>
+        <v>522.773925168168</v>
       </c>
       <c r="X40" t="n">
-        <v>73.99179512662066</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="Y40" t="n">
         <v>73.99179512662066</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1557.951584682375</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C41" t="n">
-        <v>1188.989067741963</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D41" t="n">
-        <v>1188.989067741963</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E41" t="n">
-        <v>803.2008151437187</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F41" t="n">
-        <v>392.2149103541112</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G41" t="n">
         <v>392.2149103541112</v>
@@ -7409,13 +7409,13 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J41" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403572</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M41" t="n">
         <v>1850.629876389914</v>
@@ -7436,25 +7436,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S41" t="n">
-        <v>3543.374718827861</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T41" t="n">
-        <v>3328.574857095572</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U41" t="n">
-        <v>3074.883153840723</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V41" t="n">
-        <v>2743.820266497152</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051611227038</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="X41" t="n">
-        <v>2017.585852965958</v>
+        <v>3110.044237092632</v>
       </c>
       <c r="Y41" t="n">
-        <v>1944.551424746496</v>
+        <v>2719.90490511682</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>73.99179512662066</v>
       </c>
       <c r="K42" t="n">
-        <v>232.0072486300697</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L42" t="n">
-        <v>736.3687884961882</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M42" t="n">
-        <v>1376.914137963293</v>
+        <v>1461.539392479449</v>
       </c>
       <c r="N42" t="n">
-        <v>2050.119830216076</v>
+        <v>1660.196134132113</v>
       </c>
       <c r="O42" t="n">
         <v>2209.632142884836</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.99179512662066</v>
+        <v>242.9279780545276</v>
       </c>
       <c r="C43" t="n">
         <v>73.99179512662066</v>
@@ -7597,22 +7597,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T43" t="n">
-        <v>907.2456297917884</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U43" t="n">
-        <v>618.0934533694682</v>
+        <v>946.3945963019619</v>
       </c>
       <c r="V43" t="n">
-        <v>363.4089651635813</v>
+        <v>691.710108096075</v>
       </c>
       <c r="W43" t="n">
-        <v>73.99179512662066</v>
+        <v>691.710108096075</v>
       </c>
       <c r="X43" t="n">
-        <v>73.99179512662066</v>
+        <v>463.7205571980577</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.99179512662066</v>
+        <v>242.9279780545276</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2015.081949825207</v>
+        <v>1922.31916026309</v>
       </c>
       <c r="C44" t="n">
-        <v>1646.119432884796</v>
+        <v>1553.356643322678</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.853734278045</v>
+        <v>1195.090944715928</v>
       </c>
       <c r="E44" t="n">
-        <v>902.0654816798008</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="F44" t="n">
-        <v>491.0795768901932</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G44" t="n">
-        <v>73.99179512662066</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H44" t="n">
         <v>73.99179512662066</v>
@@ -7646,10 +7646,10 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J44" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403572</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L44" t="n">
         <v>1218.912065406602</v>
@@ -7673,25 +7673,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S44" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T44" t="n">
-        <v>3699.589756331033</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.589756331033</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V44" t="n">
-        <v>3368.526868987462</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W44" t="n">
-        <v>3165.286880126221</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X44" t="n">
-        <v>2791.821121865141</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="Y44" t="n">
-        <v>2401.681789889329</v>
+        <v>2308.919000327212</v>
       </c>
     </row>
     <row r="45">
@@ -7728,7 +7728,7 @@
         <v>73.99179512662066</v>
       </c>
       <c r="K45" t="n">
-        <v>403.4201994324305</v>
+        <v>157.3616934996454</v>
       </c>
       <c r="L45" t="n">
         <v>661.7232333657639</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>443.4958817141783</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="C46" t="n">
-        <v>274.5596987862714</v>
+        <v>224.1084345389564</v>
       </c>
       <c r="D46" t="n">
-        <v>124.4430593739357</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E46" t="n">
         <v>73.99179512662066</v>
@@ -7837,19 +7837,19 @@
         <v>1073.926476585965</v>
       </c>
       <c r="U46" t="n">
-        <v>1073.926476585965</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V46" t="n">
-        <v>1073.926476585965</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.926476585965</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X46" t="n">
-        <v>845.9369256879481</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.144346544418</v>
+        <v>240.6726419207977</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>337.2886456526676</v>
       </c>
       <c r="N3" t="n">
-        <v>380.4370814350378</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.286112986035</v>
+        <v>119.2861129860352</v>
       </c>
       <c r="K6" t="n">
-        <v>124.9346993067568</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>400.522770506137</v>
+        <v>365.9815173536412</v>
       </c>
       <c r="N6" t="n">
-        <v>389.1944352782089</v>
+        <v>110.5535773752061</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>144.8111952902619</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.7789397625869</v>
+        <v>129.7789397625872</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>6.233205181928355</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>145.3183738900781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15.92129162592678</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>145.3183738900781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>15.92129162592684</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>145.3183738900781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>15.92129162592684</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>68.29886828944896</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>145.3183738900781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>15.92129162592732</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>15.9212916259269</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
-        <v>91.32084226271974</v>
+        <v>15.92129162592694</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K30" t="n">
-        <v>91.32084226271974</v>
+        <v>68.29886828944896</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>145.3183738900781</v>
       </c>
       <c r="P33" t="n">
-        <v>122.2963999168076</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>289.9257807441762</v>
       </c>
       <c r="P36" t="n">
-        <v>15.92129162592732</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>91.32084226271917</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162592684</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,19 +11139,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>91.32084226271917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669644</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11376,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>15.92129162592694</v>
       </c>
       <c r="L45" t="n">
-        <v>122.2963999168075</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>65.78516908875514</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.8180462437558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23437,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>38.69893031984017</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>124.070773507611</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>98.14353771534434</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.9088437613845</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23671,7 +23671,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
         <v>17.69584188176898</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.4651615550384</v>
+        <v>87.96077371353684</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.3220053498652</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938903</v>
@@ -23786,13 +23786,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>44.50512434640132</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>29.17189487907012</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.8318802193825</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23911,7 +23911,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>135.3220053498652</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24026,16 +24026,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>76.83632516394641</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24142,13 +24142,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>58.3588663945236</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.8547237603012</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>148.0333797447841</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>148.0333797447846</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353684</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24385,7 +24385,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J25" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>60.69561706280209</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>29.45706528861598</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24491,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4.248381461136603</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>11.58710497081375</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>60.69561706280197</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>327.9911113862473</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>135.3220053498648</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24734,10 +24734,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24859,7 +24859,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J31" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>58.35886639452349</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>196.0487469886398</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>80.34042215651925</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>321.0430853142828</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25096,7 +25096,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J34" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.9403923113702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,10 +25166,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>148.0333797447845</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25205,13 +25205,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>186.2117507411945</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,19 +25321,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J37" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.1118446079311</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,13 +25445,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>112.7691575445001</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>135.322005349865</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>169.3584153753551</v>
       </c>
       <c r="T40" t="n">
-        <v>58.35886639452337</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>113.8332951025869</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>313.9338547187865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25837,22 +25837,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>58.35886639452337</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>160.0040931769335</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>148.0333797447842</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>304.9266538652259</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>150.8482557906049</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.48721104172733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,19 +26077,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708425.6004968536</v>
+        <v>708425.6004968537</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708425.6004968536</v>
+        <v>708425.6004968537</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708425.6004968536</v>
+        <v>708425.6004968537</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708425.6004968537</v>
+        <v>708425.6004968538</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516053</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
         <v>489716.7007553192</v>
       </c>
       <c r="F2" t="n">
+        <v>489716.7007553193</v>
+      </c>
+      <c r="G2" t="n">
+        <v>489716.7007553193</v>
+      </c>
+      <c r="H2" t="n">
         <v>489716.7007553192</v>
       </c>
-      <c r="G2" t="n">
-        <v>489716.700755319</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>489716.7007553193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>489716.7007553192</v>
+      </c>
+      <c r="K2" t="n">
+        <v>489716.7007553193</v>
+      </c>
+      <c r="L2" t="n">
+        <v>489716.7007553192</v>
+      </c>
+      <c r="M2" t="n">
         <v>489716.7007553191</v>
       </c>
-      <c r="I2" t="n">
-        <v>489716.7007553189</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>489716.7007553192</v>
+      </c>
+      <c r="O2" t="n">
+        <v>489716.7007553192</v>
+      </c>
+      <c r="P2" t="n">
         <v>489716.7007553191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>489716.700755319</v>
-      </c>
-      <c r="L2" t="n">
-        <v>489716.7007553189</v>
-      </c>
-      <c r="M2" t="n">
-        <v>489716.700755319</v>
-      </c>
-      <c r="N2" t="n">
-        <v>489716.700755319</v>
-      </c>
-      <c r="O2" t="n">
-        <v>489716.700755319</v>
-      </c>
-      <c r="P2" t="n">
-        <v>489716.7007553192</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>17856.7151734785</v>
+        <v>17856.71517347715</v>
       </c>
       <c r="D3" t="n">
-        <v>414580.3876917984</v>
+        <v>414580.3876917999</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188447</v>
+        <v>248146.7686188446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3963.164522707641</v>
+        <v>3963.164522707346</v>
       </c>
       <c r="L3" t="n">
-        <v>100134.5467811942</v>
+        <v>100134.5467811945</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965337</v>
+        <v>62453.0558896534</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290572.8012568569</v>
+        <v>287707.9213319438</v>
       </c>
       <c r="C4" t="n">
-        <v>285436.3255286615</v>
+        <v>282566.3653960854</v>
       </c>
       <c r="D4" t="n">
-        <v>159802.9695323409</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="F4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="G4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="H4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="I4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="J4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="K4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="L4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="M4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="N4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="O4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
       <c r="P4" t="n">
-        <v>19453.31226243722</v>
+        <v>16707.03278084643</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683333</v>
       </c>
       <c r="C5" t="n">
-        <v>51379.04901325799</v>
+        <v>51379.0490132579</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360152</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360151</v>
@@ -26494,7 +26494,7 @@
         <v>69171.54328360151</v>
       </c>
       <c r="K5" t="n">
-        <v>69171.5432836015</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="L5" t="n">
         <v>69171.54328360151</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144153.6196129652</v>
+        <v>147018.4995378787</v>
       </c>
       <c r="C6" t="n">
-        <v>240583.1934362073</v>
+        <v>243453.1535687845</v>
       </c>
       <c r="D6" t="n">
-        <v>-61987.15213594379</v>
+        <v>-58959.14085482724</v>
       </c>
       <c r="E6" t="n">
-        <v>152945.0765904357</v>
+        <v>155691.3560720267</v>
       </c>
       <c r="F6" t="n">
-        <v>401091.8452092804</v>
+        <v>403838.1246908714</v>
       </c>
       <c r="G6" t="n">
-        <v>401091.8452092803</v>
+        <v>403838.1246908714</v>
       </c>
       <c r="H6" t="n">
-        <v>401091.8452092804</v>
+        <v>403838.1246908713</v>
       </c>
       <c r="I6" t="n">
-        <v>401091.8452092801</v>
+        <v>403838.1246908714</v>
       </c>
       <c r="J6" t="n">
-        <v>332216.1464780305</v>
+        <v>334962.4259596214</v>
       </c>
       <c r="K6" t="n">
-        <v>397128.6806865726</v>
+        <v>399874.960168164</v>
       </c>
       <c r="L6" t="n">
-        <v>300957.298428086</v>
+        <v>303703.5779096768</v>
       </c>
       <c r="M6" t="n">
-        <v>338638.7893196269</v>
+        <v>341385.0688012178</v>
       </c>
       <c r="N6" t="n">
-        <v>401091.8452092803</v>
+        <v>403838.1246908713</v>
       </c>
       <c r="O6" t="n">
-        <v>401091.8452092803</v>
+        <v>403838.1246908713</v>
       </c>
       <c r="P6" t="n">
-        <v>401091.8452092804</v>
+        <v>403838.1246908712</v>
       </c>
     </row>
   </sheetData>
@@ -26738,37 +26738,37 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>37.15985563098106</v>
+        <v>37.15985563098</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="I3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="J3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="K3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="L3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="M3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="N3" t="n">
         <v>593.4761003380651</v>
@@ -26790,37 +26790,37 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>278.6408579030034</v>
+        <v>278.6408579030022</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="K4" t="n">
-        <v>924.897439082758</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="N4" t="n">
         <v>924.8974390827582</v>
@@ -26960,13 +26960,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>14.14647294419174</v>
+        <v>14.14647294419068</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5838085861052</v>
+        <v>340.5838085861066</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209788</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3988239513368</v>
+        <v>15.39882395133562</v>
       </c>
       <c r="D4" t="n">
-        <v>395.6464148515522</v>
+        <v>395.6464148515534</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282025</v>
+        <v>250.6101663282026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516667</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39882395133677</v>
+        <v>15.39882395133562</v>
       </c>
       <c r="L4" t="n">
-        <v>395.6464148515522</v>
+        <v>395.6464148515534</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282025</v>
+        <v>250.6101663282026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>15.3988239513368</v>
+        <v>15.39882395133562</v>
       </c>
       <c r="L4" t="n">
-        <v>395.6464148515522</v>
+        <v>395.6464148515534</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282025</v>
+        <v>250.6101663282026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>209.7994696766183</v>
       </c>
       <c r="W2" t="n">
-        <v>291.1389128613382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>15.35875772528017</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>118.1193179642077</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27558,10 +27558,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.5610912067237</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>86.63203386800416</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>252.0953244379573</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>235.7579975145469</v>
+        <v>337.9448991148394</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.4852273631412</v>
+        <v>140.4852273631415</v>
       </c>
       <c r="S5" t="n">
-        <v>205.6159280377389</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3337019994929</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>107.5970807530514</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>92.84380552034023</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2635884171364</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>111.4635008204642</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.64470014666797</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.19524060252849</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.1985297019774</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8425597577945</v>
+        <v>113.6334663107819</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,13 +27792,13 @@
         <v>161.6313964614216</v>
       </c>
       <c r="I7" t="n">
-        <v>153.435314231729</v>
+        <v>153.4353142317291</v>
       </c>
       <c r="J7" t="n">
-        <v>88.62160311270327</v>
+        <v>88.62160311270341</v>
       </c>
       <c r="K7" t="n">
-        <v>3.875595200602836</v>
+        <v>14.48419748221196</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.55090505141625</v>
+        <v>80.55090505141641</v>
       </c>
       <c r="R7" t="n">
-        <v>174.2803971812542</v>
+        <v>174.2803971812543</v>
       </c>
       <c r="S7" t="n">
         <v>222.8488038854216</v>
@@ -27831,7 +27831,7 @@
         <v>286.3153742887239</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>74.28221994359259</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>128.2387900191171</v>
+        <v>91.66179653721088</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>135.0061818843768</v>
+        <v>102.3698827537144</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1493863542954011</v>
+        <v>0.1493863542953969</v>
       </c>
       <c r="H5" t="n">
-        <v>1.529903000927777</v>
+        <v>1.529903000927734</v>
       </c>
       <c r="I5" t="n">
-        <v>5.759217423973459</v>
+        <v>5.759217423973294</v>
       </c>
       <c r="J5" t="n">
-        <v>12.67898008787931</v>
+        <v>12.67898008787895</v>
       </c>
       <c r="K5" t="n">
-        <v>19.00250446520365</v>
+        <v>19.00250446520311</v>
       </c>
       <c r="L5" t="n">
-        <v>23.57428710547154</v>
+        <v>23.57428710547087</v>
       </c>
       <c r="M5" t="n">
-        <v>26.23093668367238</v>
+        <v>26.23093668367163</v>
       </c>
       <c r="N5" t="n">
-        <v>26.65538066281418</v>
+        <v>26.65538066281343</v>
       </c>
       <c r="O5" t="n">
-        <v>25.16992010228929</v>
+        <v>25.16992010228857</v>
       </c>
       <c r="P5" t="n">
-        <v>21.48194448062157</v>
+        <v>21.48194448062096</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.13204566741751</v>
+        <v>16.13204566741705</v>
       </c>
       <c r="R5" t="n">
-        <v>9.383890578008501</v>
+        <v>9.383890578008232</v>
       </c>
       <c r="S5" t="n">
-        <v>3.404141548506457</v>
+        <v>3.40414154850636</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6539387659281188</v>
+        <v>0.6539387659281002</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01195090834363209</v>
+        <v>0.01195090834363175</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07992874607418568</v>
+        <v>0.0799287460741834</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7719434160322671</v>
+        <v>0.7719434160322451</v>
       </c>
       <c r="I6" t="n">
-        <v>2.751932704747183</v>
+        <v>2.751932704747105</v>
       </c>
       <c r="J6" t="n">
-        <v>7.551513680631729</v>
+        <v>7.551513680631514</v>
       </c>
       <c r="K6" t="n">
-        <v>12.90673966760217</v>
+        <v>12.9067396676018</v>
       </c>
       <c r="L6" t="n">
-        <v>17.35470427369545</v>
+        <v>17.35470427369496</v>
       </c>
       <c r="M6" t="n">
-        <v>20.25212131888468</v>
+        <v>20.2521213188841</v>
       </c>
       <c r="N6" t="n">
-        <v>20.7881347081278</v>
+        <v>20.7881347081272</v>
       </c>
       <c r="O6" t="n">
-        <v>19.01708196616821</v>
+        <v>19.01708196616766</v>
       </c>
       <c r="P6" t="n">
-        <v>15.26288485341183</v>
+        <v>15.26288485341139</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.20283432343465</v>
+        <v>10.20283432343436</v>
       </c>
       <c r="R6" t="n">
-        <v>4.962593550114794</v>
+        <v>4.962593550114653</v>
       </c>
       <c r="S6" t="n">
-        <v>1.484641401860422</v>
+        <v>1.48464140186038</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3221689370270904</v>
+        <v>0.3221689370270813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005258470136459587</v>
+        <v>0.005258470136459437</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06700957572799864</v>
+        <v>0.06700957572799672</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5957760460180246</v>
+        <v>0.5957760460180077</v>
       </c>
       <c r="I7" t="n">
-        <v>2.015160695529269</v>
+        <v>2.015160695529211</v>
       </c>
       <c r="J7" t="n">
-        <v>4.737577003969503</v>
+        <v>4.737577003969368</v>
       </c>
       <c r="K7" t="n">
-        <v>7.785294343671112</v>
+        <v>7.78529434367089</v>
       </c>
       <c r="L7" t="n">
-        <v>9.962496376869908</v>
+        <v>9.962496376869623</v>
       </c>
       <c r="M7" t="n">
-        <v>10.50405558434437</v>
+        <v>10.50405558434407</v>
       </c>
       <c r="N7" t="n">
-        <v>10.25429262026729</v>
+        <v>10.254292620267</v>
       </c>
       <c r="O7" t="n">
-        <v>9.471498940172028</v>
+        <v>9.471498940171758</v>
       </c>
       <c r="P7" t="n">
-        <v>8.10450359532085</v>
+        <v>8.104503595320619</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.61113820027814</v>
+        <v>5.61113820027798</v>
       </c>
       <c r="R7" t="n">
-        <v>3.012994195915283</v>
+        <v>3.012994195915197</v>
       </c>
       <c r="S7" t="n">
-        <v>1.167794151550667</v>
+        <v>1.167794151550633</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2863136417469032</v>
+        <v>0.286313641746895</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003655067766981748</v>
+        <v>0.003655067766981644</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,28 +31753,28 @@
         <v>2.38583356919825</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055159</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937402</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779022</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M11" t="n">
         <v>418.9314987074825</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822519</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P11" t="n">
         <v>343.0858495426701</v>
@@ -31786,13 +31786,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916535</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.19086668553586</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840367</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985302</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J12" t="n">
         <v>120.6044214847383</v>
@@ -31844,34 +31844,34 @@
         <v>206.1321659070429</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512823</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900654</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947078</v>
       </c>
       <c r="P12" t="n">
         <v>243.7619099671574</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607458</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784627</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I13" t="n">
         <v>32.18391704784131</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490379</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790241</v>
@@ -31932,25 +31932,25 @@
         <v>163.7702163441091</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714138</v>
       </c>
       <c r="P13" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720921</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937819</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685361</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937401</v>
@@ -32239,28 +32239,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916534</v>
@@ -32309,19 +32309,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
         <v>332.0050874900653</v>
@@ -32330,22 +32330,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
         <v>167.7591540676927</v>
@@ -32412,7 +32412,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
         <v>48.12020970937817</v>
@@ -32421,10 +32421,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937401</v>
@@ -32476,28 +32476,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N20" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916534</v>
@@ -32546,19 +32546,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L21" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
         <v>332.0050874900653</v>
@@ -32567,22 +32567,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M22" t="n">
         <v>167.7591540676927</v>
@@ -32649,7 +32649,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R22" t="n">
         <v>48.12020970937817</v>
@@ -32658,10 +32658,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H23" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I23" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J23" t="n">
         <v>202.4946418937401</v>
@@ -32713,28 +32713,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L23" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M23" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N23" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O23" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P23" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q23" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T23" t="n">
         <v>10.44398644916534</v>
@@ -32783,19 +32783,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I24" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J24" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K24" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L24" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M24" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N24" t="n">
         <v>332.0050874900653</v>
@@ -32804,22 +32804,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P24" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q24" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R24" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S24" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,19 +32859,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H25" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I25" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J25" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K25" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L25" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M25" t="n">
         <v>167.7591540676927</v>
@@ -32886,7 +32886,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R25" t="n">
         <v>48.12020970937817</v>
@@ -32895,10 +32895,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T25" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H26" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I26" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J26" t="n">
         <v>202.4946418937401</v>
@@ -32950,28 +32950,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L26" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M26" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N26" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O26" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P26" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T26" t="n">
         <v>10.44398644916534</v>
@@ -33020,19 +33020,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I27" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J27" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K27" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L27" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M27" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N27" t="n">
         <v>332.0050874900653</v>
@@ -33041,22 +33041,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P27" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q27" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R27" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S27" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,19 +33096,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H28" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I28" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J28" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K28" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L28" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M28" t="n">
         <v>167.7591540676927</v>
@@ -33123,7 +33123,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R28" t="n">
         <v>48.12020970937817</v>
@@ -33132,10 +33132,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T28" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H29" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I29" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J29" t="n">
         <v>202.4946418937401</v>
@@ -33187,28 +33187,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L29" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M29" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N29" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O29" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P29" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T29" t="n">
         <v>10.44398644916534</v>
@@ -33257,19 +33257,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I30" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J30" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K30" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L30" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M30" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N30" t="n">
         <v>332.0050874900653</v>
@@ -33278,22 +33278,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P30" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q30" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R30" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S30" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,19 +33333,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H31" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I31" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J31" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K31" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L31" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M31" t="n">
         <v>167.7591540676927</v>
@@ -33360,7 +33360,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R31" t="n">
         <v>48.12020970937817</v>
@@ -33369,10 +33369,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H32" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I32" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J32" t="n">
         <v>202.4946418937401</v>
@@ -33424,28 +33424,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L32" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M32" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N32" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O32" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P32" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T32" t="n">
         <v>10.44398644916534</v>
@@ -33494,19 +33494,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I33" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J33" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K33" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L33" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M33" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N33" t="n">
         <v>332.0050874900653</v>
@@ -33515,22 +33515,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P33" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q33" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R33" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S33" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,19 +33570,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H34" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I34" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J34" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K34" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L34" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M34" t="n">
         <v>167.7591540676927</v>
@@ -33597,7 +33597,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R34" t="n">
         <v>48.12020970937817</v>
@@ -33606,10 +33606,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T34" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H35" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I35" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J35" t="n">
         <v>202.4946418937401</v>
@@ -33661,28 +33661,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L35" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M35" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N35" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O35" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P35" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T35" t="n">
         <v>10.44398644916534</v>
@@ -33731,19 +33731,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I36" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J36" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K36" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L36" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M36" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N36" t="n">
         <v>332.0050874900653</v>
@@ -33752,22 +33752,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P36" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q36" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R36" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S36" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,19 +33807,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H37" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I37" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J37" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K37" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L37" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M37" t="n">
         <v>167.7591540676927</v>
@@ -33834,7 +33834,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R37" t="n">
         <v>48.12020970937817</v>
@@ -33843,10 +33843,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T37" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>207.6969052949494</v>
       </c>
       <c r="N3" t="n">
-        <v>261.9696201058925</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
@@ -34796,7 +34796,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7296907332667963</v>
+        <v>0.7296907332664357</v>
       </c>
       <c r="K5" t="n">
-        <v>123.0580659913878</v>
+        <v>123.0580659913873</v>
       </c>
       <c r="L5" t="n">
-        <v>205.4690866859347</v>
+        <v>205.4690866859341</v>
       </c>
       <c r="M5" t="n">
-        <v>245.3982369492321</v>
+        <v>245.3982369492314</v>
       </c>
       <c r="N5" t="n">
-        <v>234.5892414782074</v>
+        <v>234.5892414782067</v>
       </c>
       <c r="O5" t="n">
-        <v>175.8718899433479</v>
+        <v>175.8718899433472</v>
       </c>
       <c r="P5" t="n">
-        <v>112.0476568968347</v>
+        <v>112.0476568968341</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.141346452872707</v>
+        <v>6.141346452872249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>139.5305377058214</v>
       </c>
       <c r="L6" t="n">
-        <v>249.6406697972805</v>
+        <v>249.6406697972799</v>
       </c>
       <c r="M6" t="n">
-        <v>278.6408579030034</v>
+        <v>244.0996047505069</v>
       </c>
       <c r="N6" t="n">
-        <v>278.6408579030034</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>270.2831567984533</v>
+        <v>270.2831567984528</v>
       </c>
       <c r="P6" t="n">
-        <v>26.09967272934351</v>
+        <v>199.7512460790183</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37.55252163718605</v>
+        <v>37.55252163718576</v>
       </c>
       <c r="M7" t="n">
-        <v>50.08793254618495</v>
+        <v>50.08793254618465</v>
       </c>
       <c r="N7" t="n">
-        <v>54.38646499949588</v>
+        <v>54.38646499949559</v>
       </c>
       <c r="O7" t="n">
-        <v>34.0566268542117</v>
+        <v>34.05662685421143</v>
       </c>
       <c r="P7" t="n">
-        <v>5.383062860214338</v>
+        <v>5.383062860214107</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262132</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391277</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040864</v>
       </c>
       <c r="L11" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730423</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588832</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>68.2907269326839</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>647.0155045122272</v>
       </c>
       <c r="N12" t="n">
         <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
-        <v>306.4419220403414</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>22.96660727472425</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531413</v>
       </c>
       <c r="L13" t="n">
         <v>186.6999948493115</v>
@@ -35586,7 +35586,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
@@ -35738,10 +35738,10 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O15" t="n">
-        <v>306.4419220403414</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q15" t="n">
         <v>22.96660727472423</v>
@@ -35887,10 +35887,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
@@ -35899,10 +35899,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
@@ -35975,13 +35975,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O18" t="n">
-        <v>306.4419220403414</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
         <v>633.6441091513602</v>
@@ -36136,10 +36136,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452625</v>
+        <v>136.5895952221328</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
@@ -36212,13 +36212,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O21" t="n">
-        <v>306.4419220403414</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36373,10 +36373,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.6524856312128</v>
+        <v>247.652485631213</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268384</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
@@ -36449,13 +36449,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269927</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>125.7087941787544</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.9666072747242</v>
+        <v>38.88789890065112</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N26" t="n">
         <v>633.6441091513602</v>
@@ -36610,10 +36610,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>159.6115691954036</v>
+        <v>84.21201855861081</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
@@ -36686,13 +36686,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502632</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
         <v>633.6441091513602</v>
@@ -36847,10 +36847,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>159.6115691954036</v>
+        <v>136.5895952221328</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122269</v>
@@ -36923,13 +36923,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502632</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927642</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N32" t="n">
         <v>633.6441091513602</v>
@@ -37084,10 +37084,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
         <v>647.0155045122269</v>
@@ -37160,13 +37160,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269927</v>
+        <v>306.4419220403414</v>
       </c>
       <c r="P33" t="n">
-        <v>232.0839024696347</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,10 +37309,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
@@ -37321,10 +37321,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268384</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
         <v>509.4561008748672</v>
@@ -37397,13 +37397,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269927</v>
+        <v>451.0493288944394</v>
       </c>
       <c r="P36" t="n">
-        <v>125.7087941787544</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>159.611569195403</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
@@ -37634,10 +37634,10 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472423</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391278</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>159.611569195403</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>559.3511648291915</v>
       </c>
       <c r="N42" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391278</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38032,7 +38032,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
         <v>247.6524856312129</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>84.21201855861081</v>
       </c>
       <c r="L45" t="n">
-        <v>260.9121554882155</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
         <v>647.0155045122269</v>
